--- a/data/financial_statements/socf/BK.xlsx
+++ b/data/financial_statements/socf/BK.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,1030 +584,1033 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-2017000000</v>
+      </c>
+      <c r="C2">
         <v>388000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>864000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>765000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>869000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>943000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1027000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>932000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>755000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>944000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>965000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>962000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1449000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1041000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1021000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>956000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>870000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1114000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1108000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1162000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1181000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1020000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>976000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>937000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>872000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>993000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>875000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>808000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>696000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>827000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>889000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>810000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>257000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1106000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>594000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>694000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>556000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>983000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>883000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>-237000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>1076000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>422000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>437000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>461000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>468000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>472000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>466000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>455000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>431000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>390000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>354000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>344000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>336000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>333000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>302000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>328000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>334000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>342000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>335000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>430000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>351000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>346000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>347000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>384000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>370000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>384000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>364000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>373000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>376000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>368000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>340000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>316000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>330000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>313000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>333000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>338000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>345000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>373000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>333000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>79000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>160000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>41000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-23000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-51000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-103000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>180000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>155000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-1000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>50000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-128000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>109000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-101000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-106000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-49000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-121000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-205000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-271000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>66000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-227000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>117000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>-17000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>95000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>60000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>-36000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-324000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>-21000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>337000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>-198000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>21000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>-170000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-427000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-485000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-107000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-129000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>119000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>312000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-289000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>53000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5">
         <v>29000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>343000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>52000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>57000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-381000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>215000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4479000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2251000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1568000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-3642000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3250000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-3074000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-2232000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1565000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-2248000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2419000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-3287000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-574000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-1249000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-57000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>708000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-820000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1752000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-2214000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-628000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-233000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>918000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-751000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-158000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-234000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>290000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1624000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-925000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>216000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>12000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>283000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1482000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>127000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>798000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>229000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-2080000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-174000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>564000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-2256000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>1967000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-935000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-65000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>254000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2336000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-1817000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1678000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-2161000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7653000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-5292000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-1086000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>4379000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-1564000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-2101000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1399000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>821000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>-511000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-201000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>535000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3957000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-2835000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-1852000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>3523000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-1341000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-1609000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-1038000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>42000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>130000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1415000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-1334000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-442000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-165000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1842000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-2182000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>480000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-562000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>254000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-637000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>3725000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4990000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3429000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3129000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>54000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2829000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-3174000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-865000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>778000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>6810000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-1685000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-2471000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>5081000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-1565000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-949000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>3184000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1244000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2420000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-852000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1291000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>5212000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-612000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-1224000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>4710000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>95000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-332000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1794000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>142000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1351000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>2705000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-71000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>1186000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>913000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>3440000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-1055000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-587000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>904000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1785000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-2744000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>-118000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-600000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-226000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-374000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-369000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-218000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-220000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-266000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-333000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-359000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-264000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-98000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-395000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-453000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-264000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-289000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-291000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-332000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-173000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-264000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-211000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-436000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-286000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-330000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-81000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-201000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-148000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-190000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-112000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-137000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-162000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-196000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>370000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-179000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-201000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-237000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-114000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-132000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-126000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>51000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-170000000</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>8000000</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
         <v>0</v>
       </c>
@@ -1501,1453 +1618,1453 @@
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>84000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-4000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-38000000</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>17000000</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
       <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>-9000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-3000000</v>
       </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>40000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-1000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-2000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>72000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-1000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-4000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>18627000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>12533000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-34300000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>25743000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>174000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1429000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10185000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-31900000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>15285000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>27354000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-55697000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-5515000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>12130000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-31882000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>14149000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-10330000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-1018000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>15489000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-2860000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-14232000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-1781000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-7453000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-6282000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>26818000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-134000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>7741000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>16290000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-21502000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>14748000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-9066000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-547000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>3768000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>22353000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-24637000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>11062000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-2140000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-16267000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-2577000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>14834000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>2585000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-1299000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1761000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-2583000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-2737000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1078000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-1995000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-949000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-445000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-14231000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-14666000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>199000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-2684000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-1479000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3435000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-1508000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>137000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-1607000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1267000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-1953000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-261000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-2112000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-389000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1562000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-2228000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>791000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2016000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>209000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2503000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2476000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-7345000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-4138000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-12318000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-3842000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-1048000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-445000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>7080000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-3226000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-4367000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-1800000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-1328000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-1136000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-2685000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-1226000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-3068000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-3300000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-1040000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-61000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>7091000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-7974000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>96000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-2895000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1618000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3490000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-2591000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3975000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>3094000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>252000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-2755000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>2420000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-890000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>4180000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1180000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-2196000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-2677000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>1922000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1944000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>646000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-1378000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-1882000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-447000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>5254000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-5101000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-2411000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-1839000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1324000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-1957000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-3076000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>19345000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>9306000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-33901000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>19931000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-4158000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-779000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4678000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-34155000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>14446000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>19855000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-78601000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-5318000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>6156000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-32196000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>20810000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-14718000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2803000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>16644000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-1430000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-19204000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>167000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-10891000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-2777000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>29226000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-4638000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>5616000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>20080000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-19539000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>17802000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-8105000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-9945000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-1016000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>15659000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-33719000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>7401000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-4663000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-7905000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-7893000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>7261000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>-1447000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>423000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2874000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-152000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1729000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-2506000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2408000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-4120000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-3103000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1928000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4475000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-85000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-7467000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3728000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-2867000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>7389000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-5426000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-8902000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>6107000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>3847000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3296000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-357000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>6194000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2314000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1293000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-5981000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-49000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>6061000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-305000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>2207000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-2778000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1213000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>3050000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>665000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>2716000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-472000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-935000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>3500000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>683000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>3000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-127000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>21000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-1241000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-1984000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-609000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-670000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>12000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-952000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-1025000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-962000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-743000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-511000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-1356000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-588000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-629000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-576000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-593000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-513000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-388000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-727000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-532000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-434000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-438000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-529000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-362000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-626000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-702000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-313000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-332000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-284000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-339000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-318000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-223000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-80000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-300000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-135000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17">
         <v>287000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-6000000</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>990000000</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
       <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <v>990000000</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
         <v>990000000</v>
       </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
         <v>494000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-372000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-313000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-352000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-311000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-362000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-304000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-346000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-312000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-339000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-327000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-318000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-335000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-330000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-318000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-306000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-327000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-319000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-293000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-282000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-297000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-288000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-248000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-243000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-250000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-219000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-232000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-199000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-242000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-204000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-214000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-205000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-218000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-209000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-220000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-186000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-201000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-188000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-189000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-166000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-21245000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-14521000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>27552000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-22710000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>6243000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1478000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-2912000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>41799000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-11819000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-32084000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>79675000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>7450000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-1032000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>30415000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-16153000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>7752000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1612000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-7982000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-4278000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>12592000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-6339000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>12034000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-1192000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-36404000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>1898000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>3432000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-23710000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>12243000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-18209000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>4312000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>13532000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-245000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-18781000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>30246000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-8929000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>5273000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>8516000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>5181000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-5137000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-23061000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-14538000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>30095000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-24127000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>5626000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-1941000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-1520000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>37373000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-15255000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-29490000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>82880000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>6005000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-9791000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>33082000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-19837000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>13458000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-4721000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-17806000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>971000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>15549000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-3844000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>11041000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>4032000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-34872000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>3528000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-3219000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-24487000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>17700000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-19344000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>6593000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>10236000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>418000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-16224000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>30352000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-6717000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>4377000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>7313000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>8686000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-4755000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-35000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>324000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>38000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-3000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-40000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-8000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-33000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>71000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>40000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>6000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-56000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>59000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-46000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-22000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>11000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-15000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-110000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>50000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>32000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>44000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>77000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>36000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-97000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>163000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-184000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>4000000</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
       <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
         <v>72000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-7000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-23000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-28000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-111000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>8000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>3000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>29000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>52000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-78000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-49000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-26000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>82000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-339000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1070000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1482000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>101000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-49000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2424000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>9000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-2819000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2538000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-1725000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1400000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-701000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>35000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1909000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-671000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1148000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-1261000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-2332000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1579000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-385000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>67000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-1033000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-852000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1881000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-2609000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-1697000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-119000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>1186000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>197000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>560000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>237000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>81000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-368000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-844000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>364000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>2500000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-287000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>9883000000</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -2955,11 +3072,11 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>9419000000</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -2967,11 +3084,11 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>7267000000</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
         <v>0</v>
       </c>
@@ -2979,11 +3096,11 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>8258000000</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -2991,11 +3108,11 @@
         <v>0</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>7133000000</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="V23">
         <v>0</v>
       </c>
@@ -3003,23 +3120,23 @@
         <v>0</v>
       </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>8204000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>4280000000</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>6537000000</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
       <c r="AD23">
         <v>0</v>
       </c>
@@ -3027,11 +3144,11 @@
         <v>0</v>
       </c>
       <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>6970000000</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
       <c r="AH23">
         <v>0</v>
       </c>
@@ -3039,11 +3156,11 @@
         <v>0</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
         <v>6460000000</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
       <c r="AL23">
         <v>0</v>
       </c>
@@ -3051,982 +3168,991 @@
         <v>0</v>
       </c>
       <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>4727000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>-26000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>82000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>9544000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-1070000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1482000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>101000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>9370000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2424000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>9000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-2819000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>9805000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-1725000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1400000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-701000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>8293000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1909000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-671000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1148000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>5872000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-2332000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1579000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-385000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>8271000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>3247000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-852000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1881000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>3928000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-1697000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-119000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1186000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>7167000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>560000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>237000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>81000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>6092000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-844000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>364000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>2500000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>4440000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>860000000</v>
+      </c>
+      <c r="C25">
         <v>-303000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-279000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-278000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-280000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-296000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-273000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-277000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-279000000</v>
-      </c>
-      <c r="J25">
-        <v>-278000000</v>
       </c>
       <c r="K25">
         <v>-278000000</v>
       </c>
       <c r="L25">
+        <v>-278000000</v>
+      </c>
+      <c r="M25">
         <v>-282000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-286000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-294000000</v>
-      </c>
-      <c r="O25">
-        <v>-270000000</v>
       </c>
       <c r="P25">
         <v>-270000000</v>
       </c>
       <c r="Q25">
+        <v>-270000000</v>
+      </c>
+      <c r="R25">
         <v>-278000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-283000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-245000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-246000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-248000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-253000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-199000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-201000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-202000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-206000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-184000000</v>
-      </c>
-      <c r="AB25">
-        <v>-186000000</v>
       </c>
       <c r="AC25">
         <v>-186000000</v>
       </c>
       <c r="AD25">
-        <v>-191000000</v>
+        <v>-186000000</v>
       </c>
       <c r="AE25">
         <v>-191000000</v>
       </c>
       <c r="AF25">
+        <v>-191000000</v>
+      </c>
+      <c r="AG25">
         <v>-192000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-194000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-196000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>-197000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-173000000</v>
-      </c>
-      <c r="AK25">
-        <v>-175000000</v>
       </c>
       <c r="AL25">
         <v>-175000000</v>
       </c>
       <c r="AM25">
+        <v>-175000000</v>
+      </c>
+      <c r="AN25">
         <v>-177000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-153000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>-3.1532</v>
+        <v>-2.7908</v>
       </c>
       <c r="C26">
-        <v>-3.4013</v>
+        <v>-3.1647</v>
       </c>
       <c r="D26">
-        <v>-3.3922</v>
+        <v>-3.4167</v>
       </c>
       <c r="E26">
-        <v>-2.2226</v>
+        <v>-3.3999</v>
       </c>
       <c r="F26">
+        <v>-2.2594</v>
+      </c>
+      <c r="G26">
         <v>-3.0981</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-3.0398</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-3.2442</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-3.8017</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-3.437</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-3.3563</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-4.8393</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-2.8416</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-2.8715</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-3.0837</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-1.9299</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-2.362</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-1.9227</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-1.8087</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>-2.3365</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-2.031</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-1.7537</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-1.8191</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-1.7962</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-1.6719</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-2.7042</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-2.8253</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-3.1671</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-3.2207</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-2.8876</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-3.0182</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-2.9394</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-2.9094</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-3.1073</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-3.7053</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-3.3005</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-3.6776</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-4.2033</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-3.8881</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-3.7787</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>2182000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3544000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2186000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1822000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-1306000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1433000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-4752000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-2230000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-596000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5405000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-2873000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-4373000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3805000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-2813000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-2158000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2107000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1241000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-2415000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-93000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>3724000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-1917000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-2603000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>3394000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-1232000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-1267000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>643000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-1264000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>346000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1427000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-1051000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1040000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-38000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>2640000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-1953000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-1600000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-736000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>818000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-2893000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>21212000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>11234000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-32539000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>23160000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-2563000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2507000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>8190000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-32849000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>14840000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>13123000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-70363000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-5316000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>9446000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-33361000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>17584000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-11838000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-881000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>13882000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-1593000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-16185000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-2042000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-9565000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-6671000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>28380000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-2362000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>8532000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>18306000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-21293000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>17251000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-6590000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-7892000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-370000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>10035000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-28479000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>10014000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-2585000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-9187000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-5803000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>10467000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>-69000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-34000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-74000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-31000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-66000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-31000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-69000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-33000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-61000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-49000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-36000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-49000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-36000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-48000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-36000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-49000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-36000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-48000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-36000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-49000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-35000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-49000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-42000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-48000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-13000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-48000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-13000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-56000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-13000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-23000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-13000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-24000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-13000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-23000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-13000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-26000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-13000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-12000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-13000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>3000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-127000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>21000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-954000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-1984000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-609000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-670000000</v>
-      </c>
-      <c r="I30">
-        <v>6000000</v>
       </c>
       <c r="J30">
         <v>6000000</v>
       </c>
       <c r="K30">
+        <v>6000000</v>
+      </c>
+      <c r="L30">
         <v>993000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-952000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-1025000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-962000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-743000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-511000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-1356000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-588000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-629000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-576000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-593000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-513000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-388000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-727000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-532000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>556000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-438000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-529000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-362000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-626000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>288000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-313000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-332000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-284000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-339000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-318000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-223000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-80000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>194000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-135000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>3000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-127000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>21000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-954000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-1984000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-609000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-670000000</v>
-      </c>
-      <c r="I31">
-        <v>6000000</v>
       </c>
       <c r="J31">
         <v>6000000</v>
       </c>
       <c r="K31">
+        <v>6000000</v>
+      </c>
+      <c r="L31">
         <v>993000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-952000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-1025000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-962000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-743000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-511000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-1356000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-588000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-629000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-576000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-593000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-513000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-388000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-727000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-532000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>556000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-438000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-529000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-362000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-626000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>288000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-313000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-332000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-284000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-339000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-318000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-223000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-80000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>194000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-135000000</v>
       </c>
     </row>
